--- a/Base/Teams/Chargers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="C3">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Chargers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>2</v>

--- a/Base/Teams/Chargers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="C2">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="C2">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>2</v>

--- a/Base/Teams/Chargers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Base/Teams/Chargers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C2">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>4</v>

--- a/Base/Teams/Chargers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="C3">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>1</v>
